--- a/data/trans_bre/P10_1-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P10_1-Edad-trans_bre.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -581,22 +581,22 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>7,3</t>
+          <t>10,03</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>5,84</t>
+          <t>10,35</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>8,44%</t>
+          <t>12,04%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>6,69%</t>
+          <t>12,48%</t>
         </is>
       </c>
     </row>
@@ -609,22 +609,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,35; 19,05</t>
+          <t>-3,53; 25,37</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,58; 18,89</t>
+          <t>-3,29; 25,72</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,54; 24,4</t>
+          <t>-3,51; 36,41</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,79; 24,42</t>
+          <t>-3,31; 37,9</t>
         </is>
       </c>
     </row>
@@ -641,22 +641,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,41</t>
+          <t>-2,4</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>2,26</t>
+          <t>-5,38</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,44%</t>
+          <t>-2,55%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>2,5%</t>
+          <t>-5,62%</t>
         </is>
       </c>
     </row>
@@ -669,22 +669,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-6,58; 7,97</t>
+          <t>-11,85; 7,96</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-5,24; 12,19</t>
+          <t>-15,26; 4,12</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-6,82; 9,13</t>
+          <t>-12,2; 9,07</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-5,49; 14,85</t>
+          <t>-16,03; 4,39</t>
         </is>
       </c>
     </row>
@@ -701,22 +701,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-1,06</t>
+          <t>-0,28</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-3,29</t>
+          <t>-2,35</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-1,13%</t>
+          <t>-0,3%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-3,48%</t>
+          <t>-2,52%</t>
         </is>
       </c>
     </row>
@@ -729,22 +729,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-7,44; 5,19</t>
+          <t>-7,17; 9,27</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-10,14; 2,49</t>
+          <t>-10,24; 7,01</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-7,76; 5,8</t>
+          <t>-7,3; 10,72</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-10,45; 2,68</t>
+          <t>-10,64; 7,81</t>
         </is>
       </c>
     </row>
@@ -761,22 +761,22 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-5,53</t>
+          <t>-4,97</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-3,69</t>
+          <t>-5,25</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-6,01%</t>
+          <t>-5,39%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-4,05%</t>
+          <t>-5,69%</t>
         </is>
       </c>
     </row>
@@ -789,22 +789,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-13,06; 1,31</t>
+          <t>-12,85; 3,98</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-11,1; 3,74</t>
+          <t>-13,22; 3,84</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-13,89; 1,46</t>
+          <t>-13,49; 4,49</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-11,9; 4,18</t>
+          <t>-13,75; 4,39</t>
         </is>
       </c>
     </row>
@@ -821,22 +821,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>3,87</t>
+          <t>-0,31</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>3,78</t>
+          <t>-0,48</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>4,68%</t>
+          <t>-0,37%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>4,61%</t>
+          <t>-0,59%</t>
         </is>
       </c>
     </row>
@@ -849,22 +849,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-6,8; 14,43</t>
+          <t>-14,62; 16,35</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-6,55; 17,2</t>
+          <t>-14,53; 19,61</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-7,34; 19,3</t>
+          <t>-16,25; 22,1</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-7,49; 24,67</t>
+          <t>-16,55; 28,55</t>
         </is>
       </c>
     </row>
@@ -881,22 +881,22 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-3,62</t>
+          <t>-1,85</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-3,44</t>
+          <t>-4,42</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-4,84%</t>
+          <t>-2,37%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-4,67%</t>
+          <t>-5,67%</t>
         </is>
       </c>
     </row>
@@ -909,22 +909,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-16,72; 10,27</t>
+          <t>-20,14; 17,86</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-16,93; 11,01</t>
+          <t>-24,5; 15,55</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-20,71; 15,67</t>
+          <t>-22,65; 26,1</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-20,85; 17,31</t>
+          <t>-28,07; 22,45</t>
         </is>
       </c>
     </row>
@@ -941,22 +941,22 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,38</t>
+          <t>-0,15</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,45</t>
+          <t>-1,52</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-0,43%</t>
+          <t>-0,17%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-0,51%</t>
+          <t>-1,72%</t>
         </is>
       </c>
     </row>
@@ -969,22 +969,29 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-4,22; 3,65</t>
+          <t>-5,35; 4,65</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,21; 3,64</t>
+          <t>-6,66; 3,46</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-4,66; 4,24</t>
+          <t>-5,81; 5,47</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-4,73; 4,31</t>
+          <t>-7,29; 4,14</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P10_1-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P10_1-Edad-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -118,7 +121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -131,6 +134,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -497,7 +506,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -579,179 +588,127 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>10,03</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>10,35</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>12,04%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>12,48%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>10.03414335589708</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>10.32476510230578</v>
+      </c>
+      <c r="E4" s="6" t="n">
+        <v>0.1204175858550602</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>0.1239835639106807</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-3,53; 25,37</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-3,29; 25,72</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-3,51; 36,41</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-3,31; 37,9</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-3.531383198484065</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-3.221049626302616</v>
+      </c>
+      <c r="E5" s="6" t="n">
+        <v>-0.03507469369545177</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>-0.03026265136088016</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>25.3695735994081</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>25.31787054814746</v>
+      </c>
+      <c r="E6" s="6" t="n">
+        <v>0.3641060378241304</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>0.3788400516642795</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>25-34</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-2,4</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-5,38</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-2,55%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-5,62%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-11,85; 7,96</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-15,26; 4,12</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-12,2; 9,07</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-16,03; 4,39</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-2.397818494399218</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-5.684073216973474</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>-0.02552082895631104</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>-0.05891364307829785</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-0,28</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-2,35</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-0,3%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-2,52%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-11.85339652325425</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-15.64902511467674</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.1219756035801376</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>-0.1601520185708412</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-7,17; 9,27</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-10,24; 7,01</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-7,3; 10,72</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-10,64; 7,81</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>7.959013729019128</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>2.569793190757942</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>0.09068065961784195</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>0.02667811111710809</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45-54</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -759,179 +716,127 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-4,97</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-5,25</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-5,39%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-5,69%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>-0.2810675720040789</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-2.20461158175661</v>
+      </c>
+      <c r="E10" s="6" t="n">
+        <v>-0.00301591824698434</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>-0.0234955163135324</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-12,85; 3,98</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-13,22; 3,84</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-13,49; 4,49</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-13,75; 4,39</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-7.167506481817632</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-9.402065193009527</v>
+      </c>
+      <c r="E11" s="6" t="n">
+        <v>-0.07303174831147939</v>
+      </c>
+      <c r="F11" s="6" t="n">
+        <v>-0.0970901787453677</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>55-64</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>9.267719821581496</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>6.600356418889216</v>
+      </c>
+      <c r="E12" s="6" t="n">
+        <v>0.1071837974520444</v>
+      </c>
+      <c r="F12" s="6" t="n">
+        <v>0.07618268350084385</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-0,31</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-0,48</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-0,37%</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-0,59%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-14,62; 16,35</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-14,53; 19,61</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-16,25; 22,1</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-16,55; 28,55</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>-4.972790773883529</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-4.761201565837824</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>-0.05385698669512427</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>-0.05151687330114439</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-1,85</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-4,42</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-2,37%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>-5,67%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-12.8467652040068</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-12.46664921017734</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.134872535304993</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>-0.1296797759322756</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-20,14; 17,86</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-24,5; 15,55</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-22,65; 26,1</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-28,07; 22,45</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>3.980115431991105</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>3.990062946345502</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>0.04490856909490271</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>0.04426443280203351</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -939,57 +844,189 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>-0,15</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>-1,52</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>-0,17%</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>-1,72%</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>-0.3138458429979063</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>0.7882246988984987</v>
+      </c>
+      <c r="E16" s="6" t="n">
+        <v>-0.003728400924059315</v>
+      </c>
+      <c r="F16" s="6" t="n">
+        <v>0.009668466819378222</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-5,35; 4,65</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-6,66; 3,46</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-5,81; 5,47</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>-7,29; 4,14</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-14.62317303788197</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-13.37302037183871</v>
+      </c>
+      <c r="E17" s="6" t="n">
+        <v>-0.1625251890110428</v>
+      </c>
+      <c r="F17" s="6" t="n">
+        <v>-0.1522908161398534</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>16.35232389859904</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>21.41201802819864</v>
+      </c>
+      <c r="E18" s="6" t="n">
+        <v>0.2209579385487848</v>
+      </c>
+      <c r="F18" s="6" t="n">
+        <v>0.32047321723953</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="n">
+        <v>-1.851737283289656</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>-6.439803576031212</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>-0.02372238324386254</v>
+      </c>
+      <c r="F19" s="6" t="n">
+        <v>-0.08138547577185473</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="n">
+        <v>-20.14373109641614</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>-25.75749734007513</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>-0.226450321713896</v>
+      </c>
+      <c r="F20" s="6" t="n">
+        <v>-0.3031888201356722</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="5" t="n">
+        <v>17.85555570057475</v>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>13.34435012400114</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>0.2609570695815672</v>
+      </c>
+      <c r="F21" s="6" t="n">
+        <v>0.1805753691190378</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>-0.1506113563431666</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>-1.405757843489375</v>
+      </c>
+      <c r="E22" s="6" t="n">
+        <v>-0.001700778146659951</v>
+      </c>
+      <c r="F22" s="6" t="n">
+        <v>-0.01579632970294906</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-5.35497889684924</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-6.458166701293434</v>
+      </c>
+      <c r="E23" s="6" t="n">
+        <v>-0.05808966255727668</v>
+      </c>
+      <c r="F23" s="6" t="n">
+        <v>-0.07053327697463019</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>4.651408955437644</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>3.509381799849776</v>
+      </c>
+      <c r="E24" s="6" t="n">
+        <v>0.05466300005535576</v>
+      </c>
+      <c r="F24" s="6" t="n">
+        <v>0.04124230584295126</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -997,16 +1034,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
     <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
